--- a/data/epsp/demo/1x(6+2).xlsx
+++ b/data/epsp/demo/1x(6+2).xlsx
@@ -19,7 +19,7 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Start|0</t>
+    <t>Start|1</t>
   </si>
   <si>
     <t>Tank1|2</t>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
